--- a/static/media/df_prov_test.xlsx
+++ b/static/media/df_prov_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,16 +440,40 @@
       <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>54</v>
+      </c>
+      <c r="F2" t="n">
+        <v>52</v>
+      </c>
+      <c r="G2" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +484,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>52</v>
+      </c>
+      <c r="F3" t="n">
+        <v>51</v>
+      </c>
+      <c r="G3" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +504,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>54</v>
+      </c>
+      <c r="G4" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -479,10 +527,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F5" t="n">
+        <v>53</v>
+      </c>
+      <c r="G5" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -490,10 +550,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>53</v>
+      </c>
+      <c r="F6" t="n">
+        <v>52</v>
+      </c>
+      <c r="G6" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -501,10 +573,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>54</v>
+      </c>
+      <c r="F7" t="n">
+        <v>55</v>
+      </c>
+      <c r="G7" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -512,10 +596,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24</v>
+      </c>
+      <c r="E8" t="n">
+        <v>55</v>
+      </c>
+      <c r="F8" t="n">
+        <v>54</v>
+      </c>
+      <c r="G8" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -523,10 +619,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E9" t="n">
+        <v>55</v>
+      </c>
+      <c r="F9" t="n">
+        <v>51</v>
+      </c>
+      <c r="G9" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -534,10 +642,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>54</v>
+      </c>
+      <c r="F10" t="n">
+        <v>55</v>
+      </c>
+      <c r="G10" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -545,10 +665,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>54</v>
+      </c>
+      <c r="F11" t="n">
+        <v>52</v>
+      </c>
+      <c r="G11" t="n">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/static/media/df_prov_test.xlsx
+++ b/static/media/df_prov_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,37 +443,19 @@
       <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E2" t="n">
-        <v>54</v>
-      </c>
-      <c r="F2" t="n">
-        <v>52</v>
-      </c>
-      <c r="G2" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -481,21 +463,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
-      </c>
-      <c r="E3" t="n">
-        <v>52</v>
-      </c>
-      <c r="F3" t="n">
-        <v>51</v>
-      </c>
-      <c r="G3" t="n">
         <v>53</v>
       </c>
     </row>
@@ -504,21 +477,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>52</v>
-      </c>
-      <c r="F4" t="n">
-        <v>54</v>
-      </c>
-      <c r="G4" t="n">
         <v>53</v>
       </c>
     </row>
@@ -530,19 +494,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
-      </c>
-      <c r="E5" t="n">
-        <v>55</v>
-      </c>
-      <c r="F5" t="n">
         <v>53</v>
-      </c>
-      <c r="G5" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -553,19 +508,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
-      </c>
-      <c r="E6" t="n">
-        <v>53</v>
-      </c>
-      <c r="F6" t="n">
-        <v>52</v>
-      </c>
-      <c r="G6" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -573,22 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
-      </c>
-      <c r="E7" t="n">
-        <v>54</v>
-      </c>
-      <c r="F7" t="n">
-        <v>55</v>
-      </c>
-      <c r="G7" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -596,22 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
-      </c>
-      <c r="E8" t="n">
-        <v>55</v>
-      </c>
-      <c r="F8" t="n">
-        <v>54</v>
-      </c>
-      <c r="G8" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -619,22 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
-      </c>
-      <c r="E9" t="n">
-        <v>55</v>
-      </c>
-      <c r="F9" t="n">
-        <v>51</v>
-      </c>
-      <c r="G9" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -642,22 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>54</v>
-      </c>
-      <c r="F10" t="n">
-        <v>55</v>
-      </c>
-      <c r="G10" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -665,21 +575,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
-      </c>
-      <c r="E11" t="n">
-        <v>54</v>
-      </c>
-      <c r="F11" t="n">
-        <v>52</v>
-      </c>
-      <c r="G11" t="n">
         <v>53</v>
       </c>
     </row>
